--- a/data/Coding UPDATE Excel 12 Aug.xlsx
+++ b/data/Coding UPDATE Excel 12 Aug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julianflowers/Dropbox/Mac (2)/Desktop/herbivores_ghg/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EC666A4-8CB3-204B-90BF-657084FC0FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033595AC-6B88-6049-91FE-4821F9D94218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9463,7 +9463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9649,6 +9649,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -9825,7 +9831,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -9843,6 +9849,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -10202,11 +10217,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC23" sqref="BC23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="46" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
@@ -10257,8 +10275,8 @@
     <col min="52" max="52" width="30" style="6" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="34.1640625" style="2" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.5" style="9" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="24.33203125" style="2" hidden="1" customWidth="1"/>
@@ -10298,7 +10316,7 @@
     <col min="100" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10461,10 +10479,10 @@
       <c r="BB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="7" t="s">
         <v>52</v>
       </c>
       <c r="BE1" s="1" t="s">
@@ -10597,7 +10615,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:99" ht="350" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
@@ -10686,10 +10704,10 @@
       </c>
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
-      <c r="BC2" s="3" t="s">
+      <c r="BC2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BD2" s="8" t="s">
         <v>110</v>
       </c>
       <c r="BE2" s="3" t="s">
@@ -10814,7 +10832,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:99" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>131</v>
       </c>
@@ -10901,10 +10919,10 @@
       </c>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BC3" s="3" t="s">
+      <c r="BC3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BD3" s="8" t="s">
         <v>110</v>
       </c>
       <c r="BE3" s="3" t="s">
@@ -11027,7 +11045,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:99" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>137</v>
       </c>
@@ -11118,10 +11136,10 @@
       </c>
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" s="8" t="s">
         <v>146</v>
       </c>
       <c r="BE4" s="3" t="s">
@@ -11244,7 +11262,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>155</v>
       </c>
@@ -11345,10 +11363,10 @@
       </c>
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
-      <c r="BC5" s="3" t="s">
+      <c r="BC5" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BD5" s="3" t="s">
+      <c r="BD5" s="8" t="s">
         <v>166</v>
       </c>
       <c r="BE5" s="3" t="s">
@@ -11477,7 +11495,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>181</v>
       </c>
@@ -11566,10 +11584,10 @@
       </c>
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
-      <c r="BC6" s="3" t="s">
+      <c r="BC6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="BD6" s="3" t="s">
+      <c r="BD6" s="8" t="s">
         <v>128</v>
       </c>
       <c r="BE6" s="3" t="s">
@@ -11694,7 +11712,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:99" ht="240" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>196</v>
       </c>
@@ -11787,10 +11805,10 @@
       </c>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
-      <c r="BC7" s="3" t="s">
+      <c r="BC7" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="BD7" s="3" t="s">
+      <c r="BD7" s="8" t="s">
         <v>203</v>
       </c>
       <c r="BE7" s="3" t="s">
@@ -11915,7 +11933,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:99" ht="208" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>208</v>
       </c>
@@ -12008,10 +12026,10 @@
       </c>
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
-      <c r="BC8" s="3" t="s">
+      <c r="BC8" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="BD8" s="3" t="s">
+      <c r="BD8" s="8" t="s">
         <v>203</v>
       </c>
       <c r="BE8" s="3" t="s">
@@ -12134,7 +12152,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:99" ht="208" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>212</v>
       </c>
@@ -12227,10 +12245,10 @@
       </c>
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
-      <c r="BC9" s="3" t="s">
+      <c r="BC9" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="BD9" s="3" t="s">
+      <c r="BD9" s="8" t="s">
         <v>203</v>
       </c>
       <c r="BE9" s="3" t="s">
@@ -12351,7 +12369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:99" ht="335" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>215</v>
       </c>
@@ -12444,10 +12462,10 @@
       </c>
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
-      <c r="BC10" s="3" t="s">
+      <c r="BC10" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="BD10" s="3" t="s">
+      <c r="BD10" s="8" t="s">
         <v>222</v>
       </c>
       <c r="BE10" s="3" t="s">
@@ -12572,7 +12590,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:99" ht="350" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>233</v>
       </c>
@@ -12665,10 +12683,10 @@
       </c>
       <c r="BA11" s="3"/>
       <c r="BB11" s="3"/>
-      <c r="BC11" s="3" t="s">
+      <c r="BC11" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="BD11" s="3" t="s">
+      <c r="BD11" s="8" t="s">
         <v>222</v>
       </c>
       <c r="BE11" s="3" t="s">
@@ -12793,7 +12811,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:99" ht="350" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>239</v>
       </c>
@@ -12886,10 +12904,10 @@
       </c>
       <c r="BA12" s="3"/>
       <c r="BB12" s="3"/>
-      <c r="BC12" s="3" t="s">
+      <c r="BC12" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="BD12" s="3" t="s">
+      <c r="BD12" s="8" t="s">
         <v>222</v>
       </c>
       <c r="BE12" s="3" t="s">
@@ -13014,7 +13032,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:99" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>242</v>
       </c>
@@ -13103,10 +13121,10 @@
       </c>
       <c r="BA13" s="3"/>
       <c r="BB13" s="3"/>
-      <c r="BC13" s="3" t="s">
+      <c r="BC13" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BD13" s="3" t="s">
+      <c r="BD13" s="8" t="s">
         <v>248</v>
       </c>
       <c r="BE13" s="3" t="s">
@@ -13231,7 +13249,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:99" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>256</v>
       </c>
@@ -13320,10 +13338,10 @@
       </c>
       <c r="BA14" s="3"/>
       <c r="BB14" s="3"/>
-      <c r="BC14" s="3" t="s">
+      <c r="BC14" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BD14" s="3" t="s">
+      <c r="BD14" s="8" t="s">
         <v>248</v>
       </c>
       <c r="BE14" s="3" t="s">
@@ -13448,7 +13466,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:99" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>260</v>
       </c>
@@ -13537,10 +13555,10 @@
       </c>
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
-      <c r="BC15" s="3" t="s">
+      <c r="BC15" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BD15" s="3" t="s">
+      <c r="BD15" s="8" t="s">
         <v>248</v>
       </c>
       <c r="BE15" s="3" t="s">
@@ -13665,7 +13683,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:99" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>263</v>
       </c>
@@ -13754,10 +13772,10 @@
       </c>
       <c r="BA16" s="3"/>
       <c r="BB16" s="3"/>
-      <c r="BC16" s="3" t="s">
+      <c r="BC16" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BD16" s="3" t="s">
+      <c r="BD16" s="8" t="s">
         <v>248</v>
       </c>
       <c r="BE16" s="3" t="s">
@@ -13882,7 +13900,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:99" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>267</v>
       </c>
@@ -13971,10 +13989,10 @@
       </c>
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
-      <c r="BC17" s="3" t="s">
+      <c r="BC17" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BD17" s="3" t="s">
+      <c r="BD17" s="8" t="s">
         <v>248</v>
       </c>
       <c r="BE17" s="3" t="s">
@@ -14099,7 +14117,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:99" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>269</v>
       </c>
@@ -14188,10 +14206,10 @@
       </c>
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
-      <c r="BC18" s="3" t="s">
+      <c r="BC18" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BD18" s="3" t="s">
+      <c r="BD18" s="8" t="s">
         <v>248</v>
       </c>
       <c r="BE18" s="3" t="s">
@@ -14314,7 +14332,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:99" ht="128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>271</v>
       </c>
@@ -14403,10 +14421,10 @@
       </c>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
-      <c r="BC19" s="3" t="s">
+      <c r="BC19" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="BD19" s="3" t="s">
+      <c r="BD19" s="8" t="s">
         <v>248</v>
       </c>
       <c r="BE19" s="3" t="s">
@@ -14531,7 +14549,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>276</v>
       </c>
@@ -14622,10 +14640,10 @@
       </c>
       <c r="BA20" s="3"/>
       <c r="BB20" s="3"/>
-      <c r="BC20" s="3" t="s">
+      <c r="BC20" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="BD20" s="3" t="s">
+      <c r="BD20" s="8" t="s">
         <v>280</v>
       </c>
       <c r="BE20" s="3" t="s">
@@ -14750,7 +14768,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:99" ht="395" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>290</v>
       </c>
@@ -14839,10 +14857,10 @@
         <v>296</v>
       </c>
       <c r="BB21" s="3"/>
-      <c r="BC21" s="3" t="s">
+      <c r="BC21" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="BD21" s="3" t="s">
+      <c r="BD21" s="8" t="s">
         <v>298</v>
       </c>
       <c r="BE21" s="3" t="s">
@@ -14967,7 +14985,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:99" ht="320" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>305</v>
       </c>
@@ -15058,10 +15076,10 @@
       </c>
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
-      <c r="BC22" s="3" t="s">
+      <c r="BC22" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="BD22" s="3" t="s">
+      <c r="BD22" s="8" t="s">
         <v>311</v>
       </c>
       <c r="BE22" s="3" t="s">
@@ -15180,7 +15198,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:99" ht="288" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>322</v>
       </c>
@@ -15271,10 +15289,10 @@
       </c>
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
-      <c r="BC23" s="3" t="s">
+      <c r="BC23" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="BD23" s="3" t="s">
+      <c r="BD23" s="8" t="s">
         <v>326</v>
       </c>
       <c r="BE23" s="3" t="s">
@@ -15399,7 +15417,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="24" spans="1:99" ht="240" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>335</v>
       </c>
@@ -15490,10 +15508,10 @@
       </c>
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
-      <c r="BC24" s="3" t="s">
+      <c r="BC24" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="BD24" s="3" t="s">
+      <c r="BD24" s="8" t="s">
         <v>343</v>
       </c>
       <c r="BE24" s="3" t="s">
@@ -15618,7 +15636,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>347</v>
       </c>
@@ -15707,10 +15725,10 @@
       </c>
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
-      <c r="BC25" s="3" t="s">
+      <c r="BC25" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="BD25" s="3" t="s">
+      <c r="BD25" s="8" t="s">
         <v>356</v>
       </c>
       <c r="BE25" s="3" t="s">
@@ -15835,7 +15853,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:99" ht="335" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>364</v>
       </c>
@@ -15930,10 +15948,10 @@
       </c>
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
-      <c r="BC26" s="3" t="s">
+      <c r="BC26" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="BD26" s="3" t="s">
+      <c r="BD26" s="8" t="s">
         <v>374</v>
       </c>
       <c r="BE26" s="3" t="s">
@@ -16058,7 +16076,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:99" ht="365" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>382</v>
       </c>
@@ -16151,10 +16169,10 @@
       </c>
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
-      <c r="BC27" s="3" t="s">
+      <c r="BC27" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="BD27" s="3" t="s">
+      <c r="BD27" s="8" t="s">
         <v>386</v>
       </c>
       <c r="BE27" s="3" t="s">
@@ -16259,7 +16277,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:99" ht="224" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>390</v>
       </c>
@@ -16348,10 +16366,10 @@
       </c>
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
-      <c r="BC28" s="3" t="s">
+      <c r="BC28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="BD28" s="3" t="s">
+      <c r="BD28" s="8" t="s">
         <v>128</v>
       </c>
       <c r="BE28" s="3" t="s">
@@ -16476,7 +16494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:99" ht="320" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>399</v>
       </c>
@@ -16565,10 +16583,10 @@
       </c>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
-      <c r="BC29" s="3" t="s">
+      <c r="BC29" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="BD29" s="3" t="s">
+      <c r="BD29" s="8" t="s">
         <v>406</v>
       </c>
       <c r="BE29" s="3" t="s">
@@ -16693,7 +16711,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:99" ht="208" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>412</v>
       </c>
@@ -16782,10 +16800,10 @@
       </c>
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
-      <c r="BC30" s="3" t="s">
+      <c r="BC30" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="BD30" s="3" t="s">
+      <c r="BD30" s="8" t="s">
         <v>415</v>
       </c>
       <c r="BE30" s="3" t="s">
@@ -16910,7 +16928,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="31" spans="1:99" ht="272" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>421</v>
       </c>
@@ -16999,10 +17017,10 @@
       </c>
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
-      <c r="BC31" s="3" t="s">
+      <c r="BC31" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="BD31" s="3" t="s">
+      <c r="BD31" s="8" t="s">
         <v>425</v>
       </c>
       <c r="BE31" s="3" t="s">
@@ -17127,7 +17145,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:99" ht="335" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>433</v>
       </c>
@@ -17218,10 +17236,10 @@
       </c>
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
-      <c r="BC32" s="3" t="s">
+      <c r="BC32" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="BD32" s="3" t="s">
+      <c r="BD32" s="8" t="s">
         <v>440</v>
       </c>
       <c r="BE32" s="3" t="s">
@@ -17346,7 +17364,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" spans="1:99" ht="365" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>443</v>
       </c>
@@ -17439,10 +17457,10 @@
       </c>
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
-      <c r="BC33" s="3" t="s">
+      <c r="BC33" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="BD33" s="3" t="s">
+      <c r="BD33" s="8" t="s">
         <v>446</v>
       </c>
       <c r="BE33" s="3" t="s">
@@ -17567,7 +17585,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>450</v>
       </c>
@@ -17660,10 +17678,10 @@
       </c>
       <c r="BA34" s="3"/>
       <c r="BB34" s="3"/>
-      <c r="BC34" s="3" t="s">
+      <c r="BC34" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="BD34" s="3" t="s">
+      <c r="BD34" s="8" t="s">
         <v>446</v>
       </c>
       <c r="BE34" s="3" t="s">
@@ -17788,7 +17806,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>456</v>
       </c>
@@ -17881,10 +17899,10 @@
       </c>
       <c r="BA35" s="3"/>
       <c r="BB35" s="3"/>
-      <c r="BC35" s="3" t="s">
+      <c r="BC35" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="BD35" s="3" t="s">
+      <c r="BD35" s="8" t="s">
         <v>461</v>
       </c>
       <c r="BE35" s="3" t="s">
@@ -18009,7 +18027,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:99" ht="350" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>470</v>
       </c>
@@ -18098,10 +18116,10 @@
       </c>
       <c r="BA36" s="3"/>
       <c r="BB36" s="3"/>
-      <c r="BC36" s="3" t="s">
+      <c r="BC36" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="BD36" s="3" t="s">
+      <c r="BD36" s="8" t="s">
         <v>474</v>
       </c>
       <c r="BE36" s="3" t="s">
@@ -18226,7 +18244,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="37" spans="1:99" ht="380" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>482</v>
       </c>
@@ -18321,10 +18339,10 @@
       </c>
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
-      <c r="BC37" s="3" t="s">
+      <c r="BC37" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="BD37" s="3" t="s">
+      <c r="BD37" s="8" t="s">
         <v>487</v>
       </c>
       <c r="BE37" s="3" t="s">
@@ -18449,7 +18467,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:99" ht="288" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>493</v>
       </c>
@@ -18538,10 +18556,10 @@
       </c>
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
-      <c r="BC38" s="3" t="s">
+      <c r="BC38" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="BD38" s="3" t="s">
+      <c r="BD38" s="8" t="s">
         <v>499</v>
       </c>
       <c r="BE38" s="3" t="s">
@@ -18666,7 +18684,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>509</v>
       </c>
@@ -18755,10 +18773,10 @@
       </c>
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
-      <c r="BC39" s="3" t="s">
+      <c r="BC39" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="BD39" s="3" t="s">
+      <c r="BD39" s="8" t="s">
         <v>515</v>
       </c>
       <c r="BE39" s="3" t="s">
@@ -18883,7 +18901,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>525</v>
       </c>
@@ -18978,10 +18996,10 @@
       </c>
       <c r="BA40" s="3"/>
       <c r="BB40" s="3"/>
-      <c r="BC40" s="3" t="s">
+      <c r="BC40" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="BD40" s="3" t="s">
+      <c r="BD40" s="8" t="s">
         <v>530</v>
       </c>
       <c r="BE40" s="3" t="s">
@@ -19106,7 +19124,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:99" ht="288" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>540</v>
       </c>
@@ -19199,10 +19217,10 @@
       </c>
       <c r="BA41" s="3"/>
       <c r="BB41" s="3"/>
-      <c r="BC41" s="3" t="s">
+      <c r="BC41" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="BD41" s="3" t="s">
+      <c r="BD41" s="8" t="s">
         <v>530</v>
       </c>
       <c r="BE41" s="3" t="s">
@@ -19323,7 +19341,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:99" ht="320" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>542</v>
       </c>
@@ -19418,10 +19436,10 @@
       </c>
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
-      <c r="BC42" s="3" t="s">
+      <c r="BC42" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="BD42" s="3" t="s">
+      <c r="BD42" s="8" t="s">
         <v>530</v>
       </c>
       <c r="BE42" s="3" t="s">
@@ -19546,7 +19564,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:99" ht="272" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>544</v>
       </c>
@@ -19637,10 +19655,10 @@
       </c>
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
-      <c r="BC43" s="3" t="s">
+      <c r="BC43" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="BD43" s="3" t="s">
+      <c r="BD43" s="8" t="s">
         <v>550</v>
       </c>
       <c r="BE43" s="3" t="s">
@@ -19765,7 +19783,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="44" spans="1:99" ht="350" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>554</v>
       </c>
@@ -19856,10 +19874,10 @@
       </c>
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
-      <c r="BC44" s="3" t="s">
+      <c r="BC44" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="BD44" s="3" t="s">
+      <c r="BD44" s="8" t="s">
         <v>550</v>
       </c>
       <c r="BE44" s="3" t="s">
@@ -19984,7 +20002,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="45" spans="1:99" ht="335" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>557</v>
       </c>
@@ -20073,10 +20091,10 @@
       </c>
       <c r="BA45" s="3"/>
       <c r="BB45" s="3"/>
-      <c r="BC45" s="3" t="s">
+      <c r="BC45" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="BD45" s="3" t="s">
+      <c r="BD45" s="8" t="s">
         <v>550</v>
       </c>
       <c r="BE45" s="3" t="s">
@@ -20201,7 +20219,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="46" spans="1:99" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:99" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>559</v>
       </c>
@@ -20292,10 +20310,10 @@
         <v>296</v>
       </c>
       <c r="BB46" s="3"/>
-      <c r="BC46" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD46" s="3" t="s">
+      <c r="BC46" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD46" s="8" t="s">
         <v>105</v>
       </c>
       <c r="BE46" s="3" t="s">
